--- a/Flask_Chart/static/data.xlsx
+++ b/Flask_Chart/static/data.xlsx
@@ -20,18 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Column1</t>
+    <t xml:space="preserve">one</t>
   </si>
   <si>
-    <t xml:space="preserve">Column2</t>
+    <t xml:space="preserve">two</t>
   </si>
   <si>
-    <t xml:space="preserve">Column3</t>
+    <t xml:space="preserve">three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">six</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twelve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thriteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fourteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fifteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sixteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seventeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svwofpoef[wehpfihw[f[w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kldhcldhcpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndoceicpjep[2e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vdschcoehcoe</t>
   </si>
 </sst>
 </file>
@@ -138,18 +189,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A69" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.92"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -161,19 +212,97 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="H2" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="1" t="n">
         <v>31</v>
       </c>
     </row>
@@ -190,6 +319,45 @@
       <c r="D3" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="E3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -204,6 +372,45 @@
       <c r="D4" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -218,6 +425,45 @@
       <c r="D5" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -232,6 +478,45 @@
       <c r="D6" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="E6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -246,6 +531,45 @@
       <c r="D7" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="E7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -260,6 +584,45 @@
       <c r="D8" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="E8" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -274,6 +637,45 @@
       <c r="D9" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="E9" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -288,6 +690,45 @@
       <c r="D10" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="E10" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -302,6 +743,45 @@
       <c r="D11" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="E11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -316,6 +796,45 @@
       <c r="D12" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="E12" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -330,6 +849,45 @@
       <c r="D13" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="E13" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -344,6 +902,45 @@
       <c r="D14" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="E14" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -358,6 +955,45 @@
       <c r="D15" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="E15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -372,6 +1008,45 @@
       <c r="D16" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="E16" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -386,6 +1061,45 @@
       <c r="D17" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="E17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -400,6 +1114,45 @@
       <c r="D18" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="E18" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -414,6 +1167,45 @@
       <c r="D19" s="1" t="n">
         <v>48</v>
       </c>
+      <c r="E19" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -428,6 +1220,45 @@
       <c r="D20" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="E20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -442,6 +1273,45 @@
       <c r="D21" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="E21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -456,6 +1326,45 @@
       <c r="D22" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="E22" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -470,6 +1379,45 @@
       <c r="D23" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="E23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -484,6 +1432,45 @@
       <c r="D24" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="E24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -498,6 +1485,45 @@
       <c r="D25" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="E25" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -512,6 +1538,45 @@
       <c r="D26" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="E26" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
@@ -526,6 +1591,45 @@
       <c r="D27" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="E27" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -540,6 +1644,45 @@
       <c r="D28" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="E28" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -554,6 +1697,45 @@
       <c r="D29" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="E29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -568,6 +1750,45 @@
       <c r="D30" s="1" t="n">
         <v>59</v>
       </c>
+      <c r="E30" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -582,6 +1803,45 @@
       <c r="D31" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="E31" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -596,6 +1856,45 @@
       <c r="D32" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="E32" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -610,6 +1909,45 @@
       <c r="D33" s="1" t="n">
         <v>62</v>
       </c>
+      <c r="E33" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -624,6 +1962,45 @@
       <c r="D34" s="1" t="n">
         <v>63</v>
       </c>
+      <c r="E34" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
@@ -638,6 +2015,45 @@
       <c r="D35" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="E35" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -652,6 +2068,45 @@
       <c r="D36" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="E36" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -666,6 +2121,45 @@
       <c r="D37" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="E37" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
@@ -680,6 +2174,45 @@
       <c r="D38" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="E38" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
@@ -694,6 +2227,45 @@
       <c r="D39" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="E39" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -708,6 +2280,45 @@
       <c r="D40" s="1" t="n">
         <v>69</v>
       </c>
+      <c r="E40" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -722,6 +2333,45 @@
       <c r="D41" s="1" t="n">
         <v>70</v>
       </c>
+      <c r="E41" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
@@ -736,6 +2386,45 @@
       <c r="D42" s="1" t="n">
         <v>71</v>
       </c>
+      <c r="E42" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
@@ -750,6 +2439,45 @@
       <c r="D43" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="E43" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -764,6 +2492,45 @@
       <c r="D44" s="1" t="n">
         <v>73</v>
       </c>
+      <c r="E44" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
@@ -778,6 +2545,45 @@
       <c r="D45" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="E45" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
@@ -792,6 +2598,45 @@
       <c r="D46" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="E46" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -806,6 +2651,45 @@
       <c r="D47" s="1" t="n">
         <v>76</v>
       </c>
+      <c r="E47" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
@@ -820,6 +2704,45 @@
       <c r="D48" s="1" t="n">
         <v>77</v>
       </c>
+      <c r="E48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
@@ -834,6 +2757,45 @@
       <c r="D49" s="1" t="n">
         <v>78</v>
       </c>
+      <c r="E49" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="M49" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
@@ -848,6 +2810,45 @@
       <c r="D50" s="1" t="n">
         <v>79</v>
       </c>
+      <c r="E50" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -862,6 +2863,45 @@
       <c r="D51" s="1" t="n">
         <v>80</v>
       </c>
+      <c r="E51" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -876,6 +2916,45 @@
       <c r="D52" s="1" t="n">
         <v>81</v>
       </c>
+      <c r="E52" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -890,6 +2969,45 @@
       <c r="D53" s="1" t="n">
         <v>82</v>
       </c>
+      <c r="E53" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="M53" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="O53" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -904,6 +3022,45 @@
       <c r="D54" s="1" t="n">
         <v>83</v>
       </c>
+      <c r="E54" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -918,6 +3075,45 @@
       <c r="D55" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="E55" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="J55" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="M55" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="O55" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -932,6 +3128,45 @@
       <c r="D56" s="1" t="n">
         <v>85</v>
       </c>
+      <c r="E56" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="N56" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="O56" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
@@ -946,6 +3181,45 @@
       <c r="D57" s="1" t="n">
         <v>86</v>
       </c>
+      <c r="E57" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="M57" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="N57" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="O57" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="P57" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -960,6 +3234,45 @@
       <c r="D58" s="1" t="n">
         <v>87</v>
       </c>
+      <c r="E58" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="N58" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="P58" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -974,6 +3287,45 @@
       <c r="D59" s="1" t="n">
         <v>88</v>
       </c>
+      <c r="E59" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -988,6 +3340,45 @@
       <c r="D60" s="1" t="n">
         <v>89</v>
       </c>
+      <c r="E60" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -1002,6 +3393,45 @@
       <c r="D61" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="E61" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="N61" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="O61" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -1016,6 +3446,45 @@
       <c r="D62" s="1" t="n">
         <v>91</v>
       </c>
+      <c r="E62" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
@@ -1030,6 +3499,45 @@
       <c r="D63" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="E63" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="M63" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="N63" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="O63" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
@@ -1044,6 +3552,45 @@
       <c r="D64" s="1" t="n">
         <v>93</v>
       </c>
+      <c r="E64" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="N64" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="O64" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="P64" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
@@ -1058,6 +3605,45 @@
       <c r="D65" s="1" t="n">
         <v>94</v>
       </c>
+      <c r="E65" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -1072,6 +3658,45 @@
       <c r="D66" s="1" t="n">
         <v>95</v>
       </c>
+      <c r="E66" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
@@ -1086,6 +3711,45 @@
       <c r="D67" s="1" t="n">
         <v>96</v>
       </c>
+      <c r="E67" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="O67" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
@@ -1100,6 +3764,45 @@
       <c r="D68" s="1" t="n">
         <v>97</v>
       </c>
+      <c r="E68" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
@@ -1114,6 +3817,45 @@
       <c r="D69" s="1" t="n">
         <v>98</v>
       </c>
+      <c r="E69" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
@@ -1128,6 +3870,45 @@
       <c r="D70" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="E70" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
@@ -1142,6 +3923,45 @@
       <c r="D71" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="E71" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
@@ -1156,6 +3976,45 @@
       <c r="D72" s="1" t="n">
         <v>101</v>
       </c>
+      <c r="E72" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
@@ -1170,6 +4029,45 @@
       <c r="D73" s="1" t="n">
         <v>102</v>
       </c>
+      <c r="E73" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="O73" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
@@ -1184,6 +4082,45 @@
       <c r="D74" s="1" t="n">
         <v>103</v>
       </c>
+      <c r="E74" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
@@ -1198,6 +4135,45 @@
       <c r="D75" s="1" t="n">
         <v>104</v>
       </c>
+      <c r="E75" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
@@ -1212,6 +4188,45 @@
       <c r="D76" s="1" t="n">
         <v>105</v>
       </c>
+      <c r="E76" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
@@ -1226,6 +4241,45 @@
       <c r="D77" s="1" t="n">
         <v>106</v>
       </c>
+      <c r="E77" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
@@ -1240,6 +4294,45 @@
       <c r="D78" s="1" t="n">
         <v>107</v>
       </c>
+      <c r="E78" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
@@ -1254,6 +4347,45 @@
       <c r="D79" s="1" t="n">
         <v>108</v>
       </c>
+      <c r="E79" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
@@ -1268,6 +4400,45 @@
       <c r="D80" s="1" t="n">
         <v>109</v>
       </c>
+      <c r="E80" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
@@ -1282,6 +4453,45 @@
       <c r="D81" s="1" t="n">
         <v>110</v>
       </c>
+      <c r="E81" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
@@ -1296,6 +4506,45 @@
       <c r="D82" s="1" t="n">
         <v>111</v>
       </c>
+      <c r="E82" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
@@ -1310,6 +4559,45 @@
       <c r="D83" s="1" t="n">
         <v>112</v>
       </c>
+      <c r="E83" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
@@ -1324,6 +4612,45 @@
       <c r="D84" s="1" t="n">
         <v>113</v>
       </c>
+      <c r="E84" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
@@ -1338,6 +4665,45 @@
       <c r="D85" s="1" t="n">
         <v>114</v>
       </c>
+      <c r="E85" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
@@ -1352,6 +4718,45 @@
       <c r="D86" s="1" t="n">
         <v>115</v>
       </c>
+      <c r="E86" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="O86" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
@@ -1366,6 +4771,45 @@
       <c r="D87" s="1" t="n">
         <v>116</v>
       </c>
+      <c r="E87" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="O87" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
@@ -1380,6 +4824,45 @@
       <c r="D88" s="1" t="n">
         <v>117</v>
       </c>
+      <c r="E88" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="L88" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="M88" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="O88" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
@@ -1394,6 +4877,45 @@
       <c r="D89" s="1" t="n">
         <v>118</v>
       </c>
+      <c r="E89" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="L89" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="M89" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="O89" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q89" s="1" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
@@ -1408,6 +4930,45 @@
       <c r="D90" s="1" t="n">
         <v>119</v>
       </c>
+      <c r="E90" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q90" s="1" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
@@ -1422,6 +4983,45 @@
       <c r="D91" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="E91" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="L91" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="M91" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="O91" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="Q91" s="1" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
@@ -1436,6 +5036,45 @@
       <c r="D92" s="1" t="n">
         <v>121</v>
       </c>
+      <c r="E92" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="L92" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="M92" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="N92" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="O92" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q92" s="1" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
@@ -1450,6 +5089,45 @@
       <c r="D93" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="E93" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L93" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="M93" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N93" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O93" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="Q93" s="1" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
@@ -1464,6 +5142,45 @@
       <c r="D94" s="1" t="n">
         <v>123</v>
       </c>
+      <c r="E94" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="L94" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M94" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="O94" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q94" s="1" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
@@ -1478,6 +5195,45 @@
       <c r="D95" s="1" t="n">
         <v>124</v>
       </c>
+      <c r="E95" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="L95" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="M95" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="N95" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="O95" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="Q95" s="1" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
@@ -1492,6 +5248,45 @@
       <c r="D96" s="1" t="n">
         <v>125</v>
       </c>
+      <c r="E96" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="L96" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="M96" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="N96" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="O96" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="P96" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q96" s="1" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
@@ -1506,6 +5301,45 @@
       <c r="D97" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="E97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
@@ -1520,6 +5354,45 @@
       <c r="D98" s="1" t="n">
         <v>127</v>
       </c>
+      <c r="E98" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="L98" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="M98" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="O98" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="P98" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="Q98" s="1" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
@@ -1534,6 +5407,45 @@
       <c r="D99" s="1" t="n">
         <v>128</v>
       </c>
+      <c r="E99" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H99" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="I99" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="L99" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M99" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="N99" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="O99" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q99" s="1" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
@@ -1548,6 +5460,45 @@
       <c r="D100" s="1" t="n">
         <v>129</v>
       </c>
+      <c r="E100" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="M100" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="O100" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="P100" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="Q100" s="1" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
@@ -1560,6 +5511,45 @@
         <v>142</v>
       </c>
       <c r="D101" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="L101" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="O101" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="P101" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="Q101" s="1" t="n">
         <v>130</v>
       </c>
     </row>
